--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\Documents\GitHub\3330-HVAC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310A85E4-7566-4336-9592-D200116C3172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11AEDF1-B345-466A-9E4D-60FF17B928B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3315" windowWidth="14400" windowHeight="8685" xr2:uid="{228C2537-8792-499C-8B52-63DCE944D2B0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{228C2537-8792-499C-8B52-63DCE944D2B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\Documents\GitHub\3330-HVAC-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Documents\GitHub\3330-HVAC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310A85E4-7566-4336-9592-D200116C3172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F53426-60D4-4163-8024-75278F75F942}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3315" windowWidth="14400" windowHeight="8685" xr2:uid="{228C2537-8792-499C-8B52-63DCE944D2B0}"/>
+    <workbookView xWindow="5760" yWindow="1680" windowWidth="17280" windowHeight="8964" xr2:uid="{228C2537-8792-499C-8B52-63DCE944D2B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,14 +400,14 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -415,7 +415,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -423,7 +423,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
